--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiyakapriyan.m\eclipse-workspace\OpencartV121\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB68FFA5-CADB-4598-9846-A8537E64CF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF66AD2-E217-49C8-BC58-4E4E91298CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -76,6 +77,30 @@
   </si>
   <si>
     <t>invalid</t>
+  </si>
+  <si>
+    <t>frank.wilson@example.com</t>
+  </si>
+  <si>
+    <t>frank.johnson@example.com</t>
+  </si>
+  <si>
+    <t>grace.jones@test.com</t>
+  </si>
+  <si>
+    <t>charlie.brown@example.com</t>
+  </si>
+  <si>
+    <t>{!](qQo]</t>
+  </si>
+  <si>
+    <t>C[1F[8iW</t>
+  </si>
+  <si>
+    <t>B`u\y/FI</t>
+  </si>
+  <si>
+    <t>.hsbJxV~</t>
   </si>
 </sst>
 </file>
@@ -487,9 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -577,4 +600,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0FB934-FB8E-4C7D-AB74-7F46A6CB1052}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>